--- a/biology/Botanique/Ecosia/Ecosia.xlsx
+++ b/biology/Botanique/Ecosia/Ecosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ecosia est un métamoteur de recherche allemand créé le 7 décembre 2009 qui reverse la majorité de ses bénéfices[2] à des associations à but non lucratif qui œuvrent aux programmes de reforestation présents essentiellement dans les pays du Sud. Ecosia plante des arbres au Burkina Faso, au Pérou, en Tanzanie, à Madagascar et dans onze autres pays[3]. L'entreprise est certifiée B corporation[4].
-En février 2024, Ecosia atteint les 200 millions d'arbres plantés dans le monde depuis sa création[5] et continue de planter environ 1 million d’arbres toutes les deux semaines (en mars 2024).
+Ecosia est un métamoteur de recherche allemand créé le 7 décembre 2009 qui reverse la majorité de ses bénéfices à des associations à but non lucratif qui œuvrent aux programmes de reforestation présents essentiellement dans les pays du Sud. Ecosia plante des arbres au Burkina Faso, au Pérou, en Tanzanie, à Madagascar et dans onze autres pays. L'entreprise est certifiée B corporation.
+En février 2024, Ecosia atteint les 200 millions d'arbres plantés dans le monde depuis sa création et continue de planter environ 1 million d’arbres toutes les deux semaines (en mars 2024).
 Le navigateur ecosia est doté d’un bloqueur de pub qui bloque les pubs de Google.
 </t>
         </is>
@@ -514,11 +526,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les résultats affichés par le moteur de recherche sont générés par Bing et Google, modifiés par l'algorithme d'Ecosia[6] et via des encarts publicitaires par Yahoo!, il affiche des liens publicitaires qui génèrent des revenus à chaque clic[7]. Il est possible de ne pas afficher de liens publicitaires, alors le financement par les recherches est moins important.
-Depuis septembre 2023, une partie des résultats sont fournis par google[8].
-Ecosia plante des arbres dans des pays pauvres, arides et déforestés (en Afrique, en Amérique du Sud et en Asie)[9]. Le siège social est situé à Berlin, en Allemagne, où travaille une équipe de 7 à 13 personnes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résultats affichés par le moteur de recherche sont générés par Bing et Google, modifiés par l'algorithme d'Ecosia et via des encarts publicitaires par Yahoo!, il affiche des liens publicitaires qui génèrent des revenus à chaque clic. Il est possible de ne pas afficher de liens publicitaires, alors le financement par les recherches est moins important.
+Depuis septembre 2023, une partie des résultats sont fournis par google.
+Ecosia plante des arbres dans des pays pauvres, arides et déforestés (en Afrique, en Amérique du Sud et en Asie). Le siège social est situé à Berlin, en Allemagne, où travaille une équipe de 7 à 13 personnes.
 </t>
         </is>
       </c>
@@ -547,16 +561,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise Ecosia GmbH a été créée en 2009 par Christian Kroll à la suite d'un voyage au Brésil où il a constaté les ravages causés par la déforestation. Il lance ainsi le moteur de recherche Ecosia le 7 décembre 2009 à Berlin[10],[11]. Ce lancement a eu lieu pendant que se tenait la Conférence des Nations unies sur les changements climatiques à Copenhague, au Danemark. Ce moteur de recherche succède aux projets de recherche caritative Xabbel, Forestle et Znout lancés auparavant par Christian Kroll. Forestle et Znout ont été interrompus en août 2013 et leur URL redirigée vers Ecosia[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise Ecosia GmbH a été créée en 2009 par Christian Kroll à la suite d'un voyage au Brésil où il a constaté les ravages causés par la déforestation. Il lance ainsi le moteur de recherche Ecosia le 7 décembre 2009 à Berlin,. Ce lancement a eu lieu pendant que se tenait la Conférence des Nations unies sur les changements climatiques à Copenhague, au Danemark. Ce moteur de recherche succède aux projets de recherche caritative Xabbel, Forestle et Znout lancés auparavant par Christian Kroll. Forestle et Znout ont été interrompus en août 2013 et leur URL redirigée vers Ecosia.
 De 2009 à juillet 2013, Ecosia s'est associé au Fonds mondial pour la nature (WWF) pour protéger les parcs nationaux de Juruena et de Tumucumaque (tous deux situés dans la forêt tropicale du nord du Brésil), ce qui a permis de récolter 1 266 295 €.
-En septembre 2013, Ecosia compte 5 employés permanents et 10 bénévoles. Le moteur de recherche a alors attiré 200 000 utilisateurs actifs et généré 20 millions de recherches mensuelles, soit 1,286 millions d'euros de revenus qui sont alors redistribués à WWF, alors partenaire de l'entreprise[11]. Le même mois, Christian Kroll annonce que les revenus mensuels d'Ecosia ont dépassé les 60 000 euros[11]. Ecosia annonce un nouveau partenariat avec The Nature Conservancy[11]. Ecosia est certifiée B corporation depuis avril 2014[4],[13].
-En juin 2017, Ecosia a dépassé les 10 millions d'arbres plantés[14]. En janvier 2018, le nombre d'arbres plantés dépasse les 20 millions[15], jusqu'à atteindre 50 millions un an plus tard.
-En date de mars 2018, plus de 6,6 millions d'euros[16] ont été collectés depuis la mise en ligne du site[17], le 7 décembre 2009[10]. Deux mois plus tard, Ecosia comptait plus de 30 salariés et indépendants[10]. En août 2020, le nombre d'employés s'élève à 70[18].
-Le 9 juillet 2020, Ecosia passe la barre des 100 millions d'arbres plantés à travers le monde[5]. Cette compagnie s'était fixé comme premier objectif d'atteindre le milliard d'arbres plantés d'ici 2020[10], ce qui constituerait 0,033 % de la population arboricole actuelle. L'objectif n'a pas été atteint, car l'entreprise avait planté à cette date moins de 100 millions d'arbres.
-Le 9 juin 2022, à l'occasion du cent cinquante millionnième arbre, Ecosia publie un nouveau manifeste et se dote d'une nouvelle identité visuelle avec une refonte graphique de son site ainsi qu'un nouveau logo[19].
-Le 1er février 2024 à 12h01 Ecosia franchit la barre des 200 millions d'arbres plantés[26].
+En septembre 2013, Ecosia compte 5 employés permanents et 10 bénévoles. Le moteur de recherche a alors attiré 200 000 utilisateurs actifs et généré 20 millions de recherches mensuelles, soit 1,286 millions d'euros de revenus qui sont alors redistribués à WWF, alors partenaire de l'entreprise. Le même mois, Christian Kroll annonce que les revenus mensuels d'Ecosia ont dépassé les 60 000 euros. Ecosia annonce un nouveau partenariat avec The Nature Conservancy. Ecosia est certifiée B corporation depuis avril 2014,.
+En juin 2017, Ecosia a dépassé les 10 millions d'arbres plantés. En janvier 2018, le nombre d'arbres plantés dépasse les 20 millions, jusqu'à atteindre 50 millions un an plus tard.
+En date de mars 2018, plus de 6,6 millions d'euros ont été collectés depuis la mise en ligne du site, le 7 décembre 2009. Deux mois plus tard, Ecosia comptait plus de 30 salariés et indépendants. En août 2020, le nombre d'employés s'élève à 70.
+Le 9 juillet 2020, Ecosia passe la barre des 100 millions d'arbres plantés à travers le monde. Cette compagnie s'était fixé comme premier objectif d'atteindre le milliard d'arbres plantés d'ici 2020, ce qui constituerait 0,033 % de la population arboricole actuelle. L'objectif n'a pas été atteint, car l'entreprise avait planté à cette date moins de 100 millions d'arbres.
+Le 9 juin 2022, à l'occasion du cent cinquante millionnième arbre, Ecosia publie un nouveau manifeste et se dote d'une nouvelle identité visuelle avec une refonte graphique de son site ainsi qu'un nouveau logo.
+Le 1er février 2024 à 12h01 Ecosia franchit la barre des 200 millions d'arbres plantés.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Partenaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ecosia travaille avec WeForest et OZG au Burkina Faso, PUR Projet au Pérou et Eden Project à Madagascar[27].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ecosia travaille avec WeForest et OZG au Burkina Faso, PUR Projet au Pérou et Eden Project à Madagascar.
 </t>
         </is>
       </c>
@@ -616,11 +634,13 @@
           <t>Popularité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2019, les utilisateurs d'Ecosia étaient principalement des Français (23 % du trafic), suivi des Allemands (17 %) et des Américains (15 %)[28]. Ses principaux concurrents étaient Qwant et DuckDuckGo, des moteurs de recherche spécialisés, quant à eux, dans la protection des données[réf. nécessaire].
-Ecosia bénéficie de la promotion de plusieurs vidéastes francophones : Doc Seven[29], Max Bird[30], Anonimal[31], ou encore Le Grand JD[32].
-Des entreprises, universités ou collectivités font le choix de son utilisation en tant que moteur de recherche par défaut. Parmi ces organisations se trouvent l'Université du Sussex[33],[34] et l'Université de Glasgow[35] au Royaume-Uni, ainsi que la KU Leuven[36] et les villes de Tournai[37] et Saint-Ghislain en Belgique[38].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2019, les utilisateurs d'Ecosia étaient principalement des Français (23 % du trafic), suivi des Allemands (17 %) et des Américains (15 %). Ses principaux concurrents étaient Qwant et DuckDuckGo, des moteurs de recherche spécialisés, quant à eux, dans la protection des données[réf. nécessaire].
+Ecosia bénéficie de la promotion de plusieurs vidéastes francophones : Doc Seven, Max Bird, Anonimal, ou encore Le Grand JD.
+Des entreprises, universités ou collectivités font le choix de son utilisation en tant que moteur de recherche par défaut. Parmi ces organisations se trouvent l'Université du Sussex, et l'Université de Glasgow au Royaume-Uni, ainsi que la KU Leuven et les villes de Tournai et Saint-Ghislain en Belgique.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Navigateur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un navigateur web basé sur Chromium[39] a également été développé. Il est disponible sur smartphones iOS, et Android.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un navigateur web basé sur Chromium a également été développé. Il est disponible sur smartphones iOS, et Android.
 Le navigateur ecosia eSt doté d’un bloqueur de pub qui bloque les pubs de Google.
 </t>
         </is>
@@ -681,10 +703,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2018, dans un article paru sur le site Clubic[10], Johan Gautreau apprécie l'engagement écologique et l'éco-responsabilité d'Ecosia, ainsi que sa politique de confidentialité claire et sa transparence au sujet de ses résultats financiers. Il indique qu'en matière de confidentialité, Ecosia n'est pas et ne prétend pas être aussi exigeante que des concurrents plus axés sur la protection des données personnelles, puisque son fonctionnement implique de générer des revenus publicitaires pour financer ses projets de reboisement ; il estime cependant qu'en la matière Ecosia « fait mieux que ce que propose Google ». En matière de performances de recherche, Gautreau estime qu'Ecosia « ne donne pas de résultats aussi précis et complets que Google », lequel « reste souvent invaincu dans ce domaine, ceci aux prix de nos données les plus privées »[10].
-Dans un comparatif de moteurs de recherche paru sur le même site en juin 2018[40], Matthieu Gagnot apprécie l'engagement écologique d'Ecosia ainsi que ses « pages de résultats performantes » grâce à l'intermédiaire de Bing. Il lui reproche en revanche l'abondance des publicités : « Pour la bonne cause, Ecosia affiche donc de la pub, beaucoup de pubs. ».
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2018, dans un article paru sur le site Clubic, Johan Gautreau apprécie l'engagement écologique et l'éco-responsabilité d'Ecosia, ainsi que sa politique de confidentialité claire et sa transparence au sujet de ses résultats financiers. Il indique qu'en matière de confidentialité, Ecosia n'est pas et ne prétend pas être aussi exigeante que des concurrents plus axés sur la protection des données personnelles, puisque son fonctionnement implique de générer des revenus publicitaires pour financer ses projets de reboisement ; il estime cependant qu'en la matière Ecosia « fait mieux que ce que propose Google ». En matière de performances de recherche, Gautreau estime qu'Ecosia « ne donne pas de résultats aussi précis et complets que Google », lequel « reste souvent invaincu dans ce domaine, ceci aux prix de nos données les plus privées ».
+Dans un comparatif de moteurs de recherche paru sur le même site en juin 2018, Matthieu Gagnot apprécie l'engagement écologique d'Ecosia ainsi que ses « pages de résultats performantes » grâce à l'intermédiaire de Bing. Il lui reproche en revanche l'abondance des publicités : « Pour la bonne cause, Ecosia affiche donc de la pub, beaucoup de pubs. ».
 </t>
         </is>
       </c>
@@ -713,7 +737,9 @@
           <t>Logotypes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Logo jusqu'au 8 juin 2022
